--- a/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>54290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35098</v>
+        <v>35376</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79263</v>
+        <v>77495</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1331322322401904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08606884672209476</v>
+        <v>0.086749715130816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1943707803734671</v>
+        <v>0.1900362873828044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -762,19 +762,19 @@
         <v>44707</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31019</v>
+        <v>30375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65219</v>
+        <v>64648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1233251156427035</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08556744406853588</v>
+        <v>0.08379157994111662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1799073546619638</v>
+        <v>0.1783334173850657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -783,19 +783,19 @@
         <v>98997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72535</v>
+        <v>77239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128364</v>
+        <v>132149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1285169213791296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09416367446904883</v>
+        <v>0.1002707911399249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1666408135720156</v>
+        <v>0.1715535166184586</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>200021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170114</v>
+        <v>169195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230808</v>
+        <v>230403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4904959131794541</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.417158602709902</v>
+        <v>0.4149050310736291</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5659933157768681</v>
+        <v>0.5649987704222112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -833,19 +833,19 @@
         <v>163384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138944</v>
+        <v>138396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187702</v>
+        <v>188597</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4507007672675507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3832818497655491</v>
+        <v>0.3817684638912336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5177806736944293</v>
+        <v>0.5202501393485427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -854,19 +854,19 @@
         <v>363405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>324021</v>
+        <v>320982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>407825</v>
+        <v>402635</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.471767985626133</v>
+        <v>0.4717679856261329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4206403237986204</v>
+        <v>0.4166946550055916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5294327172867677</v>
+        <v>0.522695631198778</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>153482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122019</v>
+        <v>122913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>183141</v>
+        <v>185606</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3763718545803557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2992185131380554</v>
+        <v>0.3014101295944144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4491036419159358</v>
+        <v>0.4551469189401501</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -904,19 +904,19 @@
         <v>154421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130671</v>
+        <v>126535</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180912</v>
+        <v>181646</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4259741170897458</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3604588831769042</v>
+        <v>0.3490513857740009</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4990503218985455</v>
+        <v>0.5010758736871856</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>143</v>
@@ -925,19 +925,19 @@
         <v>307903</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>267697</v>
+        <v>267432</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>348190</v>
+        <v>346433</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3997150929947376</v>
+        <v>0.3997150929947375</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3475206486924132</v>
+        <v>0.3471762120196223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4520160271014352</v>
+        <v>0.4497345024390518</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>60303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42347</v>
+        <v>43612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81652</v>
+        <v>81776</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1268469715599891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08907618638769974</v>
+        <v>0.09173733049024153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1717545962205549</v>
+        <v>0.1720165015610857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1050,19 +1050,19 @@
         <v>47813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34834</v>
+        <v>33981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61557</v>
+        <v>62779</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09541980350102751</v>
+        <v>0.09541980350102749</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06951693168087054</v>
+        <v>0.06781490569669467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1228480486822153</v>
+        <v>0.1252864062289764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -1071,19 +1071,19 @@
         <v>108116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>86286</v>
+        <v>85853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135928</v>
+        <v>133080</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1107200422755548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08836473529610607</v>
+        <v>0.08792136816262359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1392016548611235</v>
+        <v>0.1362854590843479</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>248252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>220700</v>
+        <v>218809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>280147</v>
+        <v>277226</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5221985022809981</v>
+        <v>0.522198502280998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4642430146686296</v>
+        <v>0.460266701247982</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5892916091901423</v>
+        <v>0.5831471744264788</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>231</v>
@@ -1121,19 +1121,19 @@
         <v>251915</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>225706</v>
+        <v>227772</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>272815</v>
+        <v>274135</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5027411505438831</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4504366346144497</v>
+        <v>0.4545603174021208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5444505986497857</v>
+        <v>0.547084406296788</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>393</v>
@@ -1142,19 +1142,19 @@
         <v>500167</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>460239</v>
+        <v>463426</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>534606</v>
+        <v>538753</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.512213913948441</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4713249173513677</v>
+        <v>0.4745882775285081</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5474829356430235</v>
+        <v>0.5517301851249681</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>166843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138893</v>
+        <v>138857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193650</v>
+        <v>194466</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3509545261590128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2921625515751695</v>
+        <v>0.2920857307427857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4073432943880038</v>
+        <v>0.4090596496153052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -1192,19 +1192,19 @@
         <v>201355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>178133</v>
+        <v>177722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225886</v>
+        <v>223293</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4018390459550893</v>
+        <v>0.4018390459550894</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3554964658758956</v>
+        <v>0.3546753326624052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4507959858652313</v>
+        <v>0.4456216096858734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -1213,19 +1213,19 @@
         <v>368197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333338</v>
+        <v>333458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>405592</v>
+        <v>403558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3770660437760043</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3413669426929433</v>
+        <v>0.341490178184843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.415361122139033</v>
+        <v>0.4132786454067455</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>66704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50477</v>
+        <v>50274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83316</v>
+        <v>83572</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1074417644717585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08130464665849206</v>
+        <v>0.08097839383709936</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1342002245907079</v>
+        <v>0.1346125854727501</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -1338,19 +1338,19 @@
         <v>65552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53687</v>
+        <v>53439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80990</v>
+        <v>79116</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1053662266893493</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08629445610253404</v>
+        <v>0.08589572304917206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1301806367417708</v>
+        <v>0.1271674335700259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>142</v>
@@ -1359,19 +1359,19 @@
         <v>132256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>112974</v>
+        <v>112594</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153573</v>
+        <v>154754</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1064029081744299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09088995362090097</v>
+        <v>0.09058415323802538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1235527332912954</v>
+        <v>0.124503036210367</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>299998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>276969</v>
+        <v>271602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>328149</v>
+        <v>327141</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4832160663273243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.446122238769004</v>
+        <v>0.4374775154701714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5285598154957244</v>
+        <v>0.5269360280167961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>383</v>
@@ -1409,19 +1409,19 @@
         <v>285929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>265947</v>
+        <v>263954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306846</v>
+        <v>307770</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4595897252126233</v>
+        <v>0.4595897252126231</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4274714469630892</v>
+        <v>0.4242678097486678</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4932111131405502</v>
+        <v>0.4946971215347954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>644</v>
@@ -1430,19 +1430,19 @@
         <v>585927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552925</v>
+        <v>553569</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>617043</v>
+        <v>621261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4713905175669683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4448394691330329</v>
+        <v>0.4453576461836271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4964240896794386</v>
+        <v>0.4998174163932256</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>254135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226103</v>
+        <v>228933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280275</v>
+        <v>283450</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4093421692009171</v>
+        <v>0.4093421692009172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3641898656985485</v>
+        <v>0.3687490557492523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4514477790096881</v>
+        <v>0.4565611652511712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>380</v>
@@ -1480,19 +1480,19 @@
         <v>270658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250603</v>
+        <v>250073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>291709</v>
+        <v>291509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4350440480980275</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4028091242742186</v>
+        <v>0.4019569915025868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4688807544633215</v>
+        <v>0.468558768990339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>606</v>
@@ -1501,19 +1501,19 @@
         <v>524793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>494832</v>
+        <v>492388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>558375</v>
+        <v>559940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4222065742586018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3981029365941554</v>
+        <v>0.3961360675679818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4492246710975913</v>
+        <v>0.4504833654188194</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>70843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55630</v>
+        <v>55843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88449</v>
+        <v>87351</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1012403152831899</v>
+        <v>0.1012403152831898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07949902748875676</v>
+        <v>0.0798034085065006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1264011354908691</v>
+        <v>0.1248310364251771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -1626,19 +1626,19 @@
         <v>67518</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55757</v>
+        <v>56467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81118</v>
+        <v>82736</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09167469587019177</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07570590155857815</v>
+        <v>0.07666926036770369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1101402730680389</v>
+        <v>0.1123376948276138</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>166</v>
@@ -1647,19 +1647,19 @@
         <v>138361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120129</v>
+        <v>119344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159895</v>
+        <v>161200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09633514797882131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08364091077662207</v>
+        <v>0.08309424936287234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1113286914094814</v>
+        <v>0.1122370693717856</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>321757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296534</v>
+        <v>294575</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349107</v>
+        <v>349742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4598158365985404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4237699375722445</v>
+        <v>0.4209710679274207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4989004364661171</v>
+        <v>0.4998085622570923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>481</v>
@@ -1697,19 +1697,19 @@
         <v>320426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>297286</v>
+        <v>300936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341605</v>
+        <v>341874</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4350690658816168</v>
+        <v>0.4350690658816167</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4036500480611818</v>
+        <v>0.4086054953133175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4638259222498454</v>
+        <v>0.4641908132576165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -1718,19 +1718,19 @@
         <v>642183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>610172</v>
+        <v>609774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>676806</v>
+        <v>675462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4471259055686257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4248376574614974</v>
+        <v>0.4245608203210187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4712320538408426</v>
+        <v>0.4702965272616648</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>307152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>281529</v>
+        <v>280957</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>335401</v>
+        <v>334148</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4389438481182698</v>
+        <v>0.4389438481182696</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4023269856934047</v>
+        <v>0.4015089092509</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4793143978911947</v>
+        <v>0.4775239537156815</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>559</v>
@@ -1768,19 +1768,19 @@
         <v>348551</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>325514</v>
+        <v>327394</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>369859</v>
+        <v>369730</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4732562382481914</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4419772863687376</v>
+        <v>0.4445303429277076</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5021876312142735</v>
+        <v>0.5020123390655029</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>862</v>
@@ -1789,19 +1789,19 @@
         <v>655703</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>622234</v>
+        <v>621068</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>690411</v>
+        <v>688671</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4565389464525528</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4332357862509699</v>
+        <v>0.4324239222908141</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4807046874622873</v>
+        <v>0.4794933038241265</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>51688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40770</v>
+        <v>40441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66666</v>
+        <v>65914</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08497565149573155</v>
+        <v>0.08497565149573152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0670262678317346</v>
+        <v>0.06648638163832926</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1096002247506222</v>
+        <v>0.1083636717151385</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -1914,19 +1914,19 @@
         <v>46604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36644</v>
+        <v>37250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57746</v>
+        <v>58178</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07672537277070739</v>
+        <v>0.0767253727707074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06032815595118791</v>
+        <v>0.06132648517708955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09506911146577163</v>
+        <v>0.09578123643762129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -1935,19 +1935,19 @@
         <v>98291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82526</v>
+        <v>81966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116099</v>
+        <v>114097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08085342102527439</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06788475511465178</v>
+        <v>0.06742467325756514</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09550158358222742</v>
+        <v>0.09385473394183391</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>286793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>262698</v>
+        <v>263665</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>311022</v>
+        <v>309991</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4714932603433269</v>
+        <v>0.4714932603433268</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4318809380517915</v>
+        <v>0.4334708034452378</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5113264948264098</v>
+        <v>0.509631672775551</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>412</v>
@@ -1985,19 +1985,19 @@
         <v>259600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>240396</v>
+        <v>241778</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>279287</v>
+        <v>279566</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4273903095224224</v>
+        <v>0.4273903095224225</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3957734442743731</v>
+        <v>0.3980498351858979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4598026553862186</v>
+        <v>0.4602620810085107</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>724</v>
@@ -2006,19 +2006,19 @@
         <v>546393</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>513726</v>
+        <v>514882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>576717</v>
+        <v>575534</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4494573347982207</v>
+        <v>0.4494573347982206</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4225857477383013</v>
+        <v>0.423537000415496</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4744017276341138</v>
+        <v>0.4734283625677758</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>269784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>244850</v>
+        <v>247635</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>292620</v>
+        <v>293334</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4435310881609416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4025382130193598</v>
+        <v>0.4071171293466229</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4810733587918916</v>
+        <v>0.4822474572774649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>517</v>
@@ -2056,19 +2056,19 @@
         <v>301204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>279875</v>
+        <v>280218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>320558</v>
+        <v>319279</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4958843177068702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4607706784322142</v>
+        <v>0.4613345772422214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5277487776790243</v>
+        <v>0.525642487088703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>814</v>
@@ -2077,19 +2077,19 @@
         <v>570988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>543262</v>
+        <v>542726</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>602875</v>
+        <v>603595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4696892441765049</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4468822178341647</v>
+        <v>0.4464408638537458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.495919378651029</v>
+        <v>0.4965116129519357</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>31911</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23114</v>
+        <v>23358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42223</v>
+        <v>42084</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07869421954475289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05700080737394959</v>
+        <v>0.05760187037920891</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1041262892070358</v>
+        <v>0.1037820399377316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -2202,19 +2202,19 @@
         <v>32193</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24952</v>
+        <v>24876</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40809</v>
+        <v>41059</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07330397825626596</v>
+        <v>0.07330397825626594</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05681714439907311</v>
+        <v>0.05664369829637305</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09292415727325229</v>
+        <v>0.09349307983389547</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -2223,19 +2223,19 @@
         <v>64103</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>52732</v>
+        <v>52492</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76762</v>
+        <v>77952</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07589168006936813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06242938646082501</v>
+        <v>0.06214541567392657</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09087833487743402</v>
+        <v>0.09228690631477214</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>166236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149986</v>
+        <v>148816</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183138</v>
+        <v>183924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4099530828917647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3698787996719127</v>
+        <v>0.3669928384218977</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4516341433378985</v>
+        <v>0.4535734605496192</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>349</v>
@@ -2273,19 +2273,19 @@
         <v>191520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>175615</v>
+        <v>178005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206507</v>
+        <v>207811</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4360998158299352</v>
+        <v>0.4360998158299351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.399882211447905</v>
+        <v>0.4053254233157995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.470226370937893</v>
+        <v>0.4731947783705597</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>584</v>
@@ -2294,19 +2294,19 @@
         <v>357757</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>335899</v>
+        <v>335834</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>380372</v>
+        <v>381876</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4235475116547368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3976706775204346</v>
+        <v>0.397593667764967</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.450321575673715</v>
+        <v>0.4521023865437191</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>207354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>191533</v>
+        <v>189286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>223425</v>
+        <v>223483</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5113526975634822</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4723384279495874</v>
+        <v>0.4667971949052229</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5509872156087275</v>
+        <v>0.5511297711998008</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>421</v>
@@ -2344,19 +2344,19 @@
         <v>215453</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>200148</v>
+        <v>200709</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>230594</v>
+        <v>229639</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.490596205913799</v>
+        <v>0.4905962059137989</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4557462591896593</v>
+        <v>0.4570239341952437</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5250716610322048</v>
+        <v>0.5228979585707517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>713</v>
@@ -2365,19 +2365,19 @@
         <v>422807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>399796</v>
+        <v>399186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>445762</v>
+        <v>446315</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5005608082758951</v>
+        <v>0.5005608082758952</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4733183760612767</v>
+        <v>0.4725956166292219</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5277372526114498</v>
+        <v>0.5283920869633772</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>18900</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12523</v>
+        <v>12483</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26950</v>
+        <v>27228</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06106506997306421</v>
+        <v>0.0610650699730642</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04046384105364553</v>
+        <v>0.04033167165789504</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08707591767471622</v>
+        <v>0.08797495381632592</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>57</v>
@@ -2490,19 +2490,19 @@
         <v>33732</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26367</v>
+        <v>26023</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43750</v>
+        <v>43863</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07266764903644692</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05680107014164632</v>
+        <v>0.05606085349760238</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09425040692492859</v>
+        <v>0.09449219110430909</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>82</v>
@@ -2511,19 +2511,19 @@
         <v>52631</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>41807</v>
+        <v>41696</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65462</v>
+        <v>64369</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06802629145750333</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05403640267797232</v>
+        <v>0.05389198681013676</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08460968723763286</v>
+        <v>0.08319709009366885</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>141380</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>127472</v>
+        <v>127359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>156093</v>
+        <v>156058</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4568039493754381</v>
+        <v>0.4568039493754382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4118657053415877</v>
+        <v>0.4115017023152484</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5043437018960898</v>
+        <v>0.5042309327477973</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>416</v>
@@ -2561,19 +2561,19 @@
         <v>225193</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209245</v>
+        <v>209933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>239866</v>
+        <v>242166</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4851275950701389</v>
+        <v>0.4851275950701388</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.450772060413979</v>
+        <v>0.4522532694189054</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5167381472344347</v>
+        <v>0.5216919345145894</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>629</v>
@@ -2582,19 +2582,19 @@
         <v>366573</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>344100</v>
+        <v>346081</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>388794</v>
+        <v>388197</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4737973410903754</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4447514330098403</v>
+        <v>0.4473110933191363</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5025188177690642</v>
+        <v>0.5017474257835893</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>149219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>134497</v>
+        <v>134641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>163833</v>
+        <v>164037</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4821309806514976</v>
+        <v>0.4821309806514975</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.434563728200413</v>
+        <v>0.4350302660999478</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5293519197511954</v>
+        <v>0.5300104766753273</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>407</v>
@@ -2632,19 +2632,19 @@
         <v>205268</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>190223</v>
+        <v>188549</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>220975</v>
+        <v>220575</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4422047558934143</v>
+        <v>0.4422047558934142</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4097935695674109</v>
+        <v>0.4061867735779414</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.476040937923821</v>
+        <v>0.475180132849881</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>626</v>
@@ -2653,19 +2653,19 @@
         <v>354487</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>333547</v>
+        <v>333625</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>377469</v>
+        <v>375610</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4581763674521212</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4311109450834802</v>
+        <v>0.4312120114846572</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4878806180498346</v>
+        <v>0.4854781359080945</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>354638</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>313215</v>
+        <v>315012</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>398965</v>
+        <v>401204</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1005482026109967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08880392794623457</v>
+        <v>0.08931337671193862</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1131159616954857</v>
+        <v>0.1137507721132946</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>435</v>
@@ -2778,19 +2778,19 @@
         <v>338119</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>306963</v>
+        <v>306690</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>375027</v>
+        <v>373105</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.09057564653785515</v>
+        <v>0.09057564653785513</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08222960984811167</v>
+        <v>0.08215642965944484</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1004626951127086</v>
+        <v>0.09994788291972734</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>734</v>
@@ -2799,19 +2799,19 @@
         <v>692756</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>642888</v>
+        <v>638436</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>747880</v>
+        <v>742288</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09542047305656899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08855163437999289</v>
+        <v>0.08793841322909633</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1030132048637967</v>
+        <v>0.1022429286122808</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>1664437</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1597300</v>
+        <v>1601990</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1729508</v>
+        <v>1727424</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4719072135572717</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4528724717267394</v>
+        <v>0.4542020184409024</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4903565327334072</v>
+        <v>0.4897655775938498</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2369</v>
@@ -2849,19 +2849,19 @@
         <v>1697968</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1644285</v>
+        <v>1644038</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1751385</v>
+        <v>1753263</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.45485387758568</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4404732444484943</v>
+        <v>0.4404070287603933</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4691633965965742</v>
+        <v>0.4696663232447086</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3939</v>
@@ -2870,19 +2870,19 @@
         <v>3362404</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3270825</v>
+        <v>3283219</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3450792</v>
+        <v>3457529</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4631386597159325</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4505244834743596</v>
+        <v>0.4522316062039956</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4753132046121021</v>
+        <v>0.4762412001519834</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>1507968</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1444579</v>
+        <v>1443142</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1584380</v>
+        <v>1574925</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4275445838317316</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4095722978242023</v>
+        <v>0.4091650427836879</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4492092995874547</v>
+        <v>0.4465285128158242</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2556</v>
@@ -2920,19 +2920,19 @@
         <v>1696910</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1641790</v>
+        <v>1640083</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1749546</v>
+        <v>1746939</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4545704758764649</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4398048471369782</v>
+        <v>0.4393477363911404</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4686707677875888</v>
+        <v>0.4679723503672644</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4057</v>
@@ -2941,19 +2941,19 @@
         <v>3204877</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3114616</v>
+        <v>3117779</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3288504</v>
+        <v>3290575</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4414408672274986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4290082295835292</v>
+        <v>0.4294439016087389</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4529595615521859</v>
+        <v>0.4532449028783847</v>
       </c>
     </row>
     <row r="35">
